--- a/信号テンプレ1.xlsx
+++ b/信号テンプレ1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saule\Documents\Quartus\schoolpc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA696C7A-80FF-48D4-B2ED-AC0989F35C79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D58ED89-C998-4358-8AC3-1E9AFFA7D218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="6048" activeTab="1" xr2:uid="{F9445B3D-A2FB-49E3-BBE2-DC50A3D51E77}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{F9445B3D-A2FB-49E3-BBE2-DC50A3D51E77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -706,6 +715,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -719,12 +734,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1125,16 +1134,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E9FD68-E423-4017-BF22-3E467D418C87}">
   <dimension ref="A3:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.3984375" customWidth="1"/>
+    <col min="1" max="1" width="16.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1184,7 +1193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1234,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1281,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1328,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1375,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1472,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1519,7 +1528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1566,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1616,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1663,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1710,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1757,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1807,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1854,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1901,7 +1910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1948,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1998,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2045,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
@@ -2092,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2139,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2189,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
@@ -2236,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
@@ -2283,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="2" t="s">
         <v>20</v>
       </c>
@@ -2330,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -2405,23 +2414,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97A1DA4-D5E5-48A9-B2BB-593E16EC5E9D}">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.09765625" customWidth="1"/>
-    <col min="8" max="8" width="13.296875" customWidth="1"/>
-    <col min="9" max="11" width="8.796875" customWidth="1"/>
-    <col min="18" max="18" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.4140625" customWidth="1"/>
+    <col min="5" max="5" width="9.4140625" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" customWidth="1"/>
+    <col min="7" max="7" width="12.08203125" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="11" width="8.83203125" customWidth="1"/>
+    <col min="18" max="18" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="9.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:23" ht="43.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2473,27 +2482,27 @@
       <c r="Q1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="R1" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="U1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="V1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="W1" s="39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:23" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="45" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2550,21 +2559,21 @@
       <c r="S2" s="21">
         <v>0</v>
       </c>
-      <c r="T2" s="45">
-        <v>0</v>
-      </c>
-      <c r="U2" s="45">
-        <v>0</v>
-      </c>
-      <c r="V2" s="45">
-        <v>0</v>
-      </c>
-      <c r="W2" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A3" s="40"/>
+      <c r="T2" s="40">
+        <v>0</v>
+      </c>
+      <c r="U2" s="40">
+        <v>0</v>
+      </c>
+      <c r="V2" s="40">
+        <v>0</v>
+      </c>
+      <c r="W2" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="42"/>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
@@ -2619,21 +2628,21 @@
       <c r="S3" s="21">
         <v>0</v>
       </c>
-      <c r="T3" s="44">
-        <v>0</v>
-      </c>
-      <c r="U3" s="44">
-        <v>0</v>
-      </c>
-      <c r="V3" s="44">
-        <v>0</v>
-      </c>
-      <c r="W3" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A4" s="40"/>
+      <c r="T3" s="39">
+        <v>0</v>
+      </c>
+      <c r="U3" s="39">
+        <v>0</v>
+      </c>
+      <c r="V3" s="39">
+        <v>0</v>
+      </c>
+      <c r="W3" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="42"/>
       <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
@@ -2706,8 +2715,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A5" s="41"/>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="43"/>
       <c r="B5" s="11" t="s">
         <v>20</v>
       </c>
@@ -2781,8 +2790,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="41" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2858,8 +2867,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A7" s="40"/>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="42"/>
       <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
@@ -2933,8 +2942,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A8" s="40"/>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="42"/>
       <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
@@ -2991,7 +3000,7 @@
         <f>S7</f>
         <v>0</v>
       </c>
-      <c r="T8" s="44">
+      <c r="T8" s="39">
         <v>10000100</v>
       </c>
       <c r="U8" s="21">
@@ -3007,8 +3016,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A9" s="41"/>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="43"/>
       <c r="B9" s="11" t="s">
         <v>20</v>
       </c>
@@ -3082,8 +3091,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A10" s="39" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="41" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -3159,8 +3168,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A11" s="40"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="42"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -3234,8 +3243,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A12" s="40"/>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="42"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
@@ -3285,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="21">
-        <f>R11</f>
+        <f t="shared" ref="R12:R18" si="5">R11</f>
         <v>10000100</v>
       </c>
       <c r="S12" s="21">
@@ -3309,8 +3318,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A13" s="41"/>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="43"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
@@ -3360,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="21">
-        <f>R12</f>
+        <f t="shared" si="5"/>
         <v>10000100</v>
       </c>
       <c r="S13" s="21">
@@ -3383,8 +3392,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -3436,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="21">
-        <f>R13</f>
+        <f t="shared" si="5"/>
         <v>10000100</v>
       </c>
       <c r="S14" s="21">
@@ -3452,7 +3461,7 @@
         <v>10000100</v>
       </c>
       <c r="V14" s="21">
-        <f t="shared" ref="V14:V20" si="5">V13</f>
+        <f t="shared" ref="V14:V20" si="6">V13</f>
         <v>12345678</v>
       </c>
       <c r="W14" s="21">
@@ -3460,8 +3469,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A15" s="40"/>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="42"/>
       <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
@@ -3510,33 +3519,33 @@
       <c r="Q15" s="23">
         <v>0</v>
       </c>
-      <c r="R15" s="44">
-        <f>R14</f>
+      <c r="R15" s="39">
+        <f t="shared" si="5"/>
         <v>10000100</v>
       </c>
-      <c r="S15" s="44">
+      <c r="S15" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T15" s="44">
+      <c r="T15" s="39">
         <f t="shared" si="3"/>
         <v>10000100</v>
       </c>
-      <c r="U15" s="44">
+      <c r="U15" s="39">
         <f t="shared" si="4"/>
         <v>10000100</v>
       </c>
-      <c r="V15" s="44">
-        <f t="shared" si="5"/>
+      <c r="V15" s="39">
+        <f t="shared" si="6"/>
         <v>12345678</v>
       </c>
-      <c r="W15" s="44">
+      <c r="W15" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A16" s="40"/>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="42"/>
       <c r="B16" s="10" t="s">
         <v>19</v>
       </c>
@@ -3586,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="R16" s="21">
-        <f>R15</f>
+        <f t="shared" si="5"/>
         <v>10000100</v>
       </c>
       <c r="S16" s="21">
@@ -3602,7 +3611,7 @@
         <v>10000100</v>
       </c>
       <c r="V16" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12345678</v>
       </c>
       <c r="W16" s="21">
@@ -3610,8 +3619,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A17" s="41"/>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="43"/>
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
@@ -3661,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="21">
-        <f>R16</f>
+        <f t="shared" si="5"/>
         <v>10000100</v>
       </c>
       <c r="S17" s="21">
@@ -3669,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="21">
-        <f t="shared" ref="T17:T19" si="6">T16</f>
+        <f t="shared" ref="T17:T19" si="7">T16</f>
         <v>10000104</v>
       </c>
       <c r="U17" s="21">
@@ -3677,15 +3686,15 @@
         <v>10000100</v>
       </c>
       <c r="V17" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12345678</v>
       </c>
       <c r="W17" s="21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A18" s="39" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -3737,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="21">
-        <f>R17</f>
+        <f t="shared" si="5"/>
         <v>10000100</v>
       </c>
       <c r="S18" s="21">
@@ -3745,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10000104</v>
       </c>
       <c r="U18" s="21">
@@ -3753,16 +3762,16 @@
         <v>10000100</v>
       </c>
       <c r="V18" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12345678</v>
       </c>
       <c r="W18" s="21" t="str">
-        <f t="shared" ref="W18:W20" si="7">W17</f>
+        <f t="shared" ref="W18:W20" si="8">W17</f>
         <v>9abcdef0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A19" s="40"/>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="42"/>
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -3820,7 +3829,7 @@
         <v>9abcdef0</v>
       </c>
       <c r="T19" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10000104</v>
       </c>
       <c r="U19" s="21">
@@ -3828,16 +3837,16 @@
         <v>10000100</v>
       </c>
       <c r="V19" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12345678</v>
       </c>
       <c r="W19" s="21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9abcdef0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A20" s="40"/>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="42"/>
       <c r="B20" s="10" t="s">
         <v>19</v>
       </c>
@@ -3891,7 +3900,7 @@
         <v>12345678</v>
       </c>
       <c r="S20" s="21" t="str">
-        <f t="shared" ref="S20" si="8">S19</f>
+        <f t="shared" ref="S20" si="9">S19</f>
         <v>9abcdef0</v>
       </c>
       <c r="T20" s="21" t="s">
@@ -3902,16 +3911,16 @@
         <v>10000100</v>
       </c>
       <c r="V20" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12345678</v>
       </c>
       <c r="W20" s="21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9abcdef0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A21" s="41"/>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="43"/>
       <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
@@ -3985,8 +3994,8 @@
         <v>9abcdef0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="41" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -4042,28 +4051,28 @@
         <v>12345678</v>
       </c>
       <c r="S22" s="21" t="str">
-        <f t="shared" ref="S22:W29" si="9">S21</f>
+        <f t="shared" ref="S22:W29" si="10">S21</f>
         <v>9abcdef0</v>
       </c>
       <c r="T22" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1000001c</v>
       </c>
       <c r="U22" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10000100</v>
       </c>
       <c r="V22" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12345678</v>
       </c>
       <c r="W22" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9abcdef0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A23" s="40"/>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="42"/>
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
@@ -4117,11 +4126,11 @@
         <v>10000100</v>
       </c>
       <c r="S23" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9abcdef0</v>
       </c>
       <c r="T23" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1000001c</v>
       </c>
       <c r="U23" s="21">
@@ -4129,16 +4138,16 @@
         <v>10000100</v>
       </c>
       <c r="V23" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12345678</v>
       </c>
       <c r="W23" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9abcdef0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A24" s="40"/>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="42"/>
       <c r="B24" s="10" t="s">
         <v>19</v>
       </c>
@@ -4192,7 +4201,7 @@
         <v>10000100</v>
       </c>
       <c r="S24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9abcdef0</v>
       </c>
       <c r="T24" s="21">
@@ -4200,20 +4209,20 @@
         <v>10000108</v>
       </c>
       <c r="U24">
-        <f t="shared" ref="U24:U29" si="10">U23</f>
+        <f t="shared" ref="U24:U29" si="11">U23</f>
         <v>10000100</v>
       </c>
       <c r="V24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12345678</v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9abcdef0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A25" s="41"/>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="43"/>
       <c r="B25" s="11" t="s">
         <v>20</v>
       </c>
@@ -4267,28 +4276,28 @@
         <v>10000100</v>
       </c>
       <c r="S25" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9abcdef0</v>
       </c>
       <c r="T25" s="21">
-        <f t="shared" ref="T25:T26" si="11">T24</f>
+        <f t="shared" ref="T25:T26" si="12">T24</f>
         <v>10000108</v>
       </c>
       <c r="U25" s="21">
+        <f t="shared" si="11"/>
+        <v>10000100</v>
+      </c>
+      <c r="V25" s="21">
         <f t="shared" si="10"/>
-        <v>10000100</v>
-      </c>
-      <c r="V25" s="21">
-        <f t="shared" si="9"/>
         <v>12345678</v>
       </c>
       <c r="W25" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9abcdef0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A26" s="39" t="s">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="41" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -4344,28 +4353,28 @@
         <v>10000100</v>
       </c>
       <c r="S26" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9abcdef0</v>
       </c>
       <c r="T26" s="21">
+        <f t="shared" si="12"/>
+        <v>10000108</v>
+      </c>
+      <c r="U26" s="21">
         <f t="shared" si="11"/>
-        <v>10000108</v>
-      </c>
-      <c r="U26" s="21">
+        <v>10000100</v>
+      </c>
+      <c r="V26" s="21">
         <f t="shared" si="10"/>
-        <v>10000100</v>
-      </c>
-      <c r="V26" s="21">
-        <f t="shared" si="9"/>
         <v>12345678</v>
       </c>
       <c r="W26" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9abcdef0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A27" s="40"/>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="42"/>
       <c r="B27" s="10" t="s">
         <v>18</v>
       </c>
@@ -4425,20 +4434,20 @@
         <v>10000108</v>
       </c>
       <c r="U27" s="21">
+        <f t="shared" si="11"/>
+        <v>10000100</v>
+      </c>
+      <c r="V27" s="21">
         <f t="shared" si="10"/>
-        <v>10000100</v>
-      </c>
-      <c r="V27" s="21">
-        <f t="shared" si="9"/>
         <v>12345678</v>
       </c>
       <c r="W27" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9abcdef0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A28" s="40"/>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="42"/>
       <c r="B28" s="10" t="s">
         <v>19</v>
       </c>
@@ -4492,27 +4501,27 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <f t="shared" ref="S28:T29" si="12">S27</f>
+        <f t="shared" ref="S28:S29" si="13">S27</f>
         <v>0</v>
       </c>
       <c r="T28">
         <v>20</v>
       </c>
       <c r="U28">
+        <f t="shared" si="11"/>
+        <v>10000100</v>
+      </c>
+      <c r="V28">
         <f t="shared" si="10"/>
-        <v>10000100</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="9"/>
         <v>12345678</v>
       </c>
       <c r="W28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9abcdef0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A29" s="41"/>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="43"/>
       <c r="B29" s="11" t="s">
         <v>20</v>
       </c>
@@ -4566,28 +4575,28 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T29">
-        <f t="shared" ref="T29" si="13">T28</f>
+        <f t="shared" ref="T29" si="14">T28</f>
         <v>20</v>
       </c>
       <c r="U29">
+        <f t="shared" si="11"/>
+        <v>10000100</v>
+      </c>
+      <c r="V29">
         <f t="shared" si="10"/>
-        <v>10000100</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="9"/>
         <v>12345678</v>
       </c>
       <c r="W29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9abcdef0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A30" s="39" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="41" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -4639,8 +4648,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A31" s="40"/>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="42"/>
       <c r="B31" s="10" t="s">
         <v>18</v>
       </c>
@@ -4690,8 +4699,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A32" s="40"/>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="42"/>
       <c r="B32" s="10" t="s">
         <v>19</v>
       </c>
@@ -4741,8 +4750,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A33" s="41"/>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="43"/>
       <c r="B33" s="11" t="s">
         <v>20</v>
       </c>
@@ -4792,8 +4801,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A34" s="39" t="s">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -4863,8 +4872,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A35" s="40"/>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="42"/>
       <c r="B35" s="10" t="s">
         <v>18</v>
       </c>
@@ -4932,8 +4941,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A36" s="40"/>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="42"/>
       <c r="B36" s="10" t="s">
         <v>19</v>
       </c>
@@ -5001,8 +5010,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="42"/>
+    <row r="37" spans="1:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="44"/>
       <c r="B37" s="12" t="s">
         <v>20</v>
       </c>
@@ -5056,27 +5065,27 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <f t="shared" ref="S36:S37" si="14">S36</f>
+        <f t="shared" ref="S37" si="15">S36</f>
         <v>0</v>
       </c>
       <c r="T37">
-        <f t="shared" ref="T37" si="15">T36</f>
+        <f t="shared" ref="T37" si="16">T36</f>
         <v>20</v>
       </c>
       <c r="U37">
-        <f t="shared" ref="U34:U37" si="16">U36</f>
+        <f t="shared" ref="U37" si="17">U36</f>
         <v>10000100</v>
       </c>
       <c r="V37">
-        <f t="shared" ref="V34:V37" si="17">V36</f>
+        <f t="shared" ref="V37" si="18">V36</f>
         <v>12345678</v>
       </c>
       <c r="W37" t="str">
-        <f t="shared" ref="W34:W37" si="18">W36</f>
+        <f t="shared" ref="W37" si="19">W36</f>
         <v>9abcdef0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:23" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A38" s="13" t="s">
         <v>0</v>
       </c>
